--- a/datasets/one_one.xlsx
+++ b/datasets/one_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A95BA-C43B-4B92-8793-5056C9C99EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC9354-3880-4B72-AA1C-72F556596C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2295" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>All</t>
+    <t>All crimes</t>
   </si>
   <si>
     <t>Theft</t>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datasets/one_one.xlsx
+++ b/datasets/one_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC9354-3880-4B72-AA1C-72F556596C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300EEB2B-CD6E-426E-BC23-C2503DB9A30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2295" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Violence</t>
   </si>
   <si>
-    <t>Narcotics</t>
+    <t>Drug</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
